--- a/report_template/halfYearForm.xlsx
+++ b/report_template/halfYearForm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>測站名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,9 +45,6 @@
     <t>維修及改善建議</t>
   </si>
   <si>
-    <t>零氣體產生器(Zero air)</t>
-  </si>
-  <si>
     <t>氮氧化物分析儀(NOx)</t>
   </si>
   <si>
@@ -62,26 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. DFU檢查，不良更換度小於0.001ppm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. PMT Cell乾燥劑更換</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 反應室Cell清潔及檢查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 活性碳更換</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. HC去除器（Kicker）測試</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. IR強度檢查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 使用經認證的臭氧傳輸標準儀進行校正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 電磁閥門清潔及檢查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a. 檢查H型鋼銹蝕狀況</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b. 檢查漏水情況</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,18 +136,6 @@
   </si>
   <si>
     <t>d. 檢查線路固定良好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e. 檢查定時開關及溫度控制開關設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f. 檢查冷媒檢漏、測定及補足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g. 送風方向檢查及調整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,11 +238,43 @@
   <si>
     <t>YES☑  NO□</t>
   </si>
+  <si>
+    <t>2. 活性碳更換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.電磁閥門清潔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 電磁閥門清潔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. HC去除器（Kicker）檢查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 臭氧傳輸標準儀進行校正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a. 檢查銹蝕狀況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e. 檢查冷媒檢漏、測定及補足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f. 送風方向檢查及調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -682,78 +671,6 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,6 +692,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -879,6 +868,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -914,6 +920,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1092,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56:F56"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1104,613 +1127,635 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="27" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="27" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="20" t="s">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="20" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="20" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="20" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="20" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" spans="1:6" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="27"/>
-    </row>
-    <row r="30" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="20" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="24" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="24" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="24" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="24" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="20" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="24" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+      <c r="B46" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="24"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="24"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="24"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
+    </row>
+    <row r="52" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="24"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="24"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="33"/>
+    </row>
+    <row r="54" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="24" t="s">
+      <c r="E57" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="28"/>
-    </row>
-    <row r="43" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="28"/>
-    </row>
-    <row r="45" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="28"/>
-    </row>
-    <row r="46" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="28"/>
-    </row>
-    <row r="47" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-    </row>
-    <row r="48" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" s="7"/>
+      <c r="F57" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:F53"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A30:A46"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B34:D34"/>
@@ -1725,46 +1770,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A30:A46"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:F53"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.55000000000000004" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
